--- a/hysteresis/data/tools.xlsx
+++ b/hysteresis/data/tools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cshimin_TMCIT\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohyamasan/Downloads/TMCIT-3rd-Report/hysteresis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812ACF62-3D77-4653-AC62-11DD2A01FA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42548DF0-5979-614B-9148-FE8027A992AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62F26AF6-B7C8-4E00-BDB4-7D8CB82151FD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{62F26AF6-B7C8-4E00-BDB4-7D8CB82151FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,9 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -338,15 +335,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,115 +651,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC3BFF1-70BA-40DC-AFDE-6E7B938DD2B5}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:5" ht="19" thickBot="1"/>
+    <row r="2" spans="2:5" ht="19" thickBot="1">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="2:5">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="2:5">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="2:5">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="2:5">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="2:5" ht="19" thickBot="1">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="s">
+    <row r="8" spans="2:5">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
